--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Science-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C04A6A-4684-4D2D-ADC6-069CD0E2B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F6DC2-83FE-4FCD-BDA9-8956A689BA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+  <si>
+    <t>S no</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Calibir</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,219 +402,179 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <f>A1*2</f>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
-        <f>A1*3</f>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
-        <f>A1*4</f>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1">
-        <f>A1*5</f>
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B10" si="0">A2*2</f>
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C10" si="1">A2*3</f>
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D10" si="2">A2*4</f>
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E10" si="3">A2*5</f>
-        <v>10</v>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="3"/>
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
